--- a/enum.xlsx
+++ b/enum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Гончаров А.А\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Отдел разработки\Гончаров А.А\lime\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Grid Results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Grid Results'!$A$1:$K$56</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="123">
   <si>
     <t>CardStatus</t>
   </si>
@@ -340,6 +343,54 @@
   </si>
   <si>
     <t>Клиент добавил новую карту</t>
+  </si>
+  <si>
+    <t>СберОнлайн</t>
+  </si>
+  <si>
+    <t>DebtorTransferType</t>
+  </si>
+  <si>
+    <t>Аутсорсинг</t>
+  </si>
+  <si>
+    <t>Цессия</t>
+  </si>
+  <si>
+    <t>RestructuringState</t>
+  </si>
+  <si>
+    <t>Отсутсвует</t>
+  </si>
+  <si>
+    <t>Успешно завершенная</t>
+  </si>
+  <si>
+    <t>Проваленная</t>
+  </si>
+  <si>
+    <t>DebtorInteractionType</t>
+  </si>
+  <si>
+    <t>Звонок</t>
+  </si>
+  <si>
+    <t>Звонок 3-му лицу</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Соц. Сеть</t>
+  </si>
+  <si>
+    <t>Соц. сеть другу</t>
+  </si>
+  <si>
+    <t>Бум. Письмо</t>
   </si>
 </sst>
 </file>
@@ -882,10 +933,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -894,25 +945,25 @@
     <col min="2" max="2" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.42578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" style="11" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="7">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>56</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -934,14 +985,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -963,14 +1014,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -992,14 +1043,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1021,14 +1072,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>52</v>
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1050,14 +1101,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
+      <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -1079,14 +1130,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3">
-        <v>200</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1108,6 +1159,15 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1129,13 +1189,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>34</v>
@@ -1149,13 +1209,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1178,13 +1238,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -1206,14 +1266,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
@@ -1236,13 +1296,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
@@ -1264,6 +1324,15 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,15 +1344,6 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1293,25 +1353,25 @@
       <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
@@ -1322,25 +1382,25 @@
       <c r="G16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>2</v>
+      <c r="K16" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>50</v>
+      <c r="A17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>17</v>
@@ -1351,26 +1411,17 @@
       <c r="G17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>3</v>
+      <c r="K17" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1380,25 +1431,25 @@
       <c r="G18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>3</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>4</v>
+      <c r="K18" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>17</v>
@@ -1409,17 +1460,26 @@
       <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="1">
         <v>4</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>5</v>
+      <c r="K19" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1429,25 +1489,25 @@
       <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>5</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>6</v>
+      <c r="K20" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>50</v>
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>17</v>
@@ -1458,25 +1518,16 @@
       <c r="G21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>6</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
@@ -1487,435 +1538,596 @@
       <c r="G22" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
+      <c r="K23" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="3">
+        <v>4</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="1">
+      <c r="J34" s="1">
         <v>-4</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3">
+      <c r="J35" s="3">
         <v>-3</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J27" s="1">
-        <v>3</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="3">
-        <v>4</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="1">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="1">
-        <v>5</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="1">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="1">
-        <v>8</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="3">
-        <v>9</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="3">
-        <v>3</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="1">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="1">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="1">
-        <v>4</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="3">
-        <v>7</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="3">
-        <v>11</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="3">
-        <v>5</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>106</v>
+      <c r="J36" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="1">
-        <v>8</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="1">
-        <v>12</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>92</v>
+      <c r="J37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="3">
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3">
+        <v>200</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="1">
+        <v>8</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="3">
         <v>9</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="3">
-        <v>13</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="48" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="1">
+      <c r="J48" s="1">
         <v>10</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="7">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="3">
+      <c r="J49" s="3">
         <v>11</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1">
+      <c r="J50" s="1">
         <v>12</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C42" s="11"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="10" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>